--- a/sample files/students.xlsx
+++ b/sample files/students.xlsx
@@ -32,18 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Movie</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
     <t>Tiểu học A</t>
   </si>
   <si>
@@ -60,6 +48,18 @@
   </si>
   <si>
     <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,27 +427,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -455,16 +455,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
